--- a/model/Outputs/8. Fixed RE/With PV/Output Files/60/Output_6_29.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/60/Output_6_29.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177834</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177834</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1570965302.325459</v>
+        <v>59684342.42064519</v>
       </c>
     </row>
   </sheetData>
@@ -670,7 +670,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D2" t="n">
-        <v>408.9508114468717</v>
+        <v>410.3391557398498</v>
       </c>
       <c r="E2" t="n">
         <v>404.3632896068686</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T2" t="n">
         <v>560.964918411981</v>
@@ -758,13 +758,13 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G3" t="n">
-        <v>321.0633076155676</v>
+        <v>322.5970075731406</v>
       </c>
       <c r="H3" t="n">
         <v>301.8178796392513</v>
       </c>
       <c r="I3" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G5" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H5" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G8" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H8" t="n">
         <v>347.8590406130752</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T8" t="n">
         <v>560.964918411981</v>
@@ -1432,10 +1432,10 @@
         <v>560.964918411981</v>
       </c>
       <c r="U11" t="n">
-        <v>647.3630829088994</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V11" t="n">
-        <v>629.8510241668239</v>
+        <v>628.4626798738458</v>
       </c>
       <c r="W11" t="n">
         <v>638.3734759809475</v>
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I13" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1785,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="H16" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>629.8510241668239</v>
       </c>
       <c r="W17" t="n">
-        <v>638.3734759809475</v>
+        <v>636.9851316879694</v>
       </c>
       <c r="X17" t="n">
-        <v>590.8934891676897</v>
+        <v>592.2818334606677</v>
       </c>
       <c r="Y17" t="n">
         <v>511.3174326828064</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S21" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T21" t="n">
         <v>392.6911708778912</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2338,10 +2338,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G23" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H23" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S24" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T24" t="n">
         <v>392.6911708778912</v>
@@ -2499,43 +2499,43 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T26" t="n">
         <v>560.964918411981</v>
@@ -2626,7 +2626,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X26" t="n">
-        <v>590.8934891676897</v>
+        <v>592.2818334606677</v>
       </c>
       <c r="Y26" t="n">
         <v>511.3174326828064</v>
@@ -2800,13 +2800,13 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C29" t="n">
-        <v>448.0862339500159</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D29" t="n">
         <v>410.3391557398498</v>
       </c>
       <c r="E29" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138904</v>
       </c>
       <c r="F29" t="n">
         <v>404.8896287080119</v>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S30" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T30" t="n">
         <v>392.6911708778912</v>
@@ -2955,7 +2955,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2973,10 +2973,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>560.964918411981</v>
       </c>
       <c r="U32" t="n">
-        <v>647.3630829088994</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V32" t="n">
-        <v>629.8510241668239</v>
+        <v>628.4626798738458</v>
       </c>
       <c r="W32" t="n">
         <v>638.3734759809475</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S33" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T33" t="n">
         <v>392.6911708778912</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
     </row>
     <row r="35">
@@ -3289,7 +3289,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H35" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3337,7 +3337,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X35" t="n">
-        <v>590.8934891676897</v>
+        <v>592.2818334606677</v>
       </c>
       <c r="Y35" t="n">
         <v>511.3174326828064</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G38" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H38" t="n">
         <v>347.8590406130752</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T38" t="n">
         <v>560.964918411981</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="W40" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T41" t="n">
         <v>560.964918411981</v>
@@ -3811,7 +3811,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X41" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y41" t="n">
         <v>511.3174326828064</v>
@@ -3921,10 +3921,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G44" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H44" t="n">
         <v>347.8590406130752</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T44" t="n">
         <v>560.964918411981</v>
@@ -4158,10 +4158,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4312,10 +4312,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C2" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D2" t="n">
         <v>1711.662994324041</v>
@@ -4342,19 +4342,19 @@
         <v>2124.71495243113</v>
       </c>
       <c r="L2" t="n">
-        <v>3681.051378010443</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M2" t="n">
-        <v>4163.230577523946</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N2" t="n">
-        <v>4728.273641396618</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O2" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P2" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q2" t="n">
         <v>6931.116362236997</v>
@@ -4363,25 +4363,25 @@
         <v>7048</v>
       </c>
       <c r="S2" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T2" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U2" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V2" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W2" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X2" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y2" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="3">
@@ -4406,10 +4406,10 @@
         <v>880.1629040736968</v>
       </c>
       <c r="G3" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H3" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I3" t="n">
         <v>140.96</v>
@@ -4491,10 +4491,10 @@
         <v>140.96</v>
       </c>
       <c r="I4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="J4" t="n">
-        <v>290.4466099967136</v>
+        <v>440.0999956178874</v>
       </c>
       <c r="K4" t="n">
         <v>457.4949902104935</v>
@@ -4564,7 +4564,7 @@
         <v>892.8334361342853</v>
       </c>
       <c r="G5" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H5" t="n">
         <v>140.96</v>
@@ -4579,16 +4579,16 @@
         <v>1415.008586083262</v>
       </c>
       <c r="L5" t="n">
-        <v>2819.17922466306</v>
+        <v>2846.826260951187</v>
       </c>
       <c r="M5" t="n">
-        <v>3301.358424176563</v>
+        <v>3329.005460464689</v>
       </c>
       <c r="N5" t="n">
-        <v>3866.401488049235</v>
+        <v>3894.048524337361</v>
       </c>
       <c r="O5" t="n">
-        <v>4776.556370989979</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P5" t="n">
         <v>6474.295852434775</v>
@@ -4758,7 +4758,7 @@
         <v>140.96</v>
       </c>
       <c r="S7" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="T7" t="n">
         <v>290.6133856211738</v>
@@ -4786,19 +4786,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C8" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D8" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E8" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F8" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G8" t="n">
         <v>492.3327682960356</v>
@@ -4810,22 +4810,22 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J8" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K8" t="n">
-        <v>1936.671378010443</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L8" t="n">
-        <v>3681.051378010443</v>
+        <v>2819.17922466306</v>
       </c>
       <c r="M8" t="n">
-        <v>4163.230577523946</v>
+        <v>3301.358424176563</v>
       </c>
       <c r="N8" t="n">
-        <v>4728.273641396618</v>
+        <v>3866.401488049235</v>
       </c>
       <c r="O8" t="n">
-        <v>5638.428524337362</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P8" t="n">
         <v>6474.295852434775</v>
@@ -4837,25 +4837,25 @@
         <v>7048</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T8" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U8" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V8" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W8" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X8" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y8" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="9">
@@ -4959,31 +4959,31 @@
         <v>140.96</v>
       </c>
       <c r="G10" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="H10" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="I10" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="J10" t="n">
-        <v>290.4466099967136</v>
+        <v>440.0999956178874</v>
       </c>
       <c r="K10" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="L10" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="M10" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N10" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O10" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P10" t="n">
         <v>457.4949902104935</v>
@@ -5050,7 +5050,7 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K11" t="n">
-        <v>1936.671378010443</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L11" t="n">
         <v>3681.051378010443</v>
@@ -5080,7 +5080,7 @@
         <v>6116.713394464005</v>
       </c>
       <c r="U11" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V11" t="n">
         <v>4826.598134791557</v>
@@ -5181,25 +5181,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C13" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D13" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E13" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F13" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G13" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H13" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I13" t="n">
         <v>140.96</v>
@@ -5247,10 +5247,10 @@
         <v>307.8416045893196</v>
       </c>
       <c r="X13" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y13" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="14">
@@ -5287,7 +5287,7 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K14" t="n">
-        <v>1936.671378010443</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L14" t="n">
         <v>3681.051378010443</v>
@@ -5433,7 +5433,7 @@
         <v>307.8416045893196</v>
       </c>
       <c r="G16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H16" t="n">
         <v>140.96</v>
@@ -5524,7 +5524,7 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K17" t="n">
-        <v>2124.71495243113</v>
+        <v>1936.671378010443</v>
       </c>
       <c r="L17" t="n">
         <v>3681.051378010443</v>
@@ -5560,7 +5560,7 @@
         <v>4825.195766818852</v>
       </c>
       <c r="W17" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X17" t="n">
         <v>3583.51196363841</v>
@@ -5658,22 +5658,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="C19" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D19" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E19" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F19" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G19" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H19" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I19" t="n">
         <v>140.96</v>
@@ -5761,13 +5761,13 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K20" t="n">
-        <v>1415.008586083262</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L20" t="n">
-        <v>2595.354589746543</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M20" t="n">
-        <v>3077.533789260046</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N20" t="n">
         <v>4728.273641396618</v>
@@ -5861,7 +5861,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R21" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S21" t="n">
         <v>5159.222422432123</v>
@@ -5892,25 +5892,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C22" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D22" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E22" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F22" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G22" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H22" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I22" t="n">
         <v>140.96</v>
@@ -5952,16 +5952,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="V22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="23">
@@ -5986,37 +5986,37 @@
         <v>892.8334361342853</v>
       </c>
       <c r="G23" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H23" t="n">
         <v>140.96</v>
       </c>
       <c r="I23" t="n">
-        <v>216.5482970397704</v>
+        <v>145.3883603820864</v>
       </c>
       <c r="J23" t="n">
-        <v>1101.367131735718</v>
+        <v>604.2055058577386</v>
       </c>
       <c r="K23" t="n">
-        <v>2153.765102156982</v>
+        <v>2053.555015773446</v>
       </c>
       <c r="L23" t="n">
-        <v>3071.357825473565</v>
+        <v>3797.935015773446</v>
       </c>
       <c r="M23" t="n">
-        <v>3553.537024987068</v>
+        <v>4280.114215286949</v>
       </c>
       <c r="N23" t="n">
-        <v>4118.58008885974</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O23" t="n">
-        <v>5028.734971800483</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P23" t="n">
-        <v>5864.602299897897</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q23" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R23" t="n">
         <v>7048</v>
@@ -6098,7 +6098,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R24" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S24" t="n">
         <v>5159.222422432123</v>
@@ -6129,22 +6129,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H25" t="n">
         <v>140.96</v>
@@ -6183,22 +6183,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="26">
@@ -6259,19 +6259,19 @@
         <v>7048</v>
       </c>
       <c r="S26" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T26" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U26" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V26" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W26" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X26" t="n">
         <v>3583.51196363841</v>
@@ -6448,10 +6448,10 @@
         <v>2578.759347546128</v>
       </c>
       <c r="C29" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D29" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E29" t="n">
         <v>1303.215227044376</v>
@@ -6472,22 +6472,22 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K29" t="n">
-        <v>2124.71495243113</v>
+        <v>1936.671378010443</v>
       </c>
       <c r="L29" t="n">
-        <v>3071.357825473565</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M29" t="n">
-        <v>3553.537024987068</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N29" t="n">
-        <v>4118.58008885974</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O29" t="n">
-        <v>5028.734971800483</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P29" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q29" t="n">
         <v>6931.116362236997</v>
@@ -6572,7 +6572,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R30" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S30" t="n">
         <v>5159.222422432123</v>
@@ -6603,25 +6603,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="C31" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D31" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E31" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F31" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G31" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H31" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I31" t="n">
         <v>140.96</v>
@@ -6709,13 +6709,13 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K32" t="n">
-        <v>1936.671378010443</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L32" t="n">
-        <v>3681.051378010443</v>
+        <v>2595.354589746543</v>
       </c>
       <c r="M32" t="n">
-        <v>4163.230577523946</v>
+        <v>3077.533789260046</v>
       </c>
       <c r="N32" t="n">
         <v>4728.273641396618</v>
@@ -6739,7 +6739,7 @@
         <v>6116.713394464005</v>
       </c>
       <c r="U32" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V32" t="n">
         <v>4826.598134791557</v>
@@ -6809,7 +6809,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R33" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S33" t="n">
         <v>5159.222422432123</v>
@@ -6840,16 +6840,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="C34" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D34" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E34" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F34" t="n">
         <v>239.3480243885944</v>
@@ -6909,7 +6909,7 @@
         <v>307.8416045893196</v>
       </c>
       <c r="Y34" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
     </row>
     <row r="35">
@@ -6919,22 +6919,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C35" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D35" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E35" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F35" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G35" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H35" t="n">
         <v>140.96</v>
@@ -6946,22 +6946,22 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K35" t="n">
-        <v>2124.71495243113</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L35" t="n">
-        <v>3681.051378010443</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M35" t="n">
-        <v>4163.230577523946</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N35" t="n">
-        <v>4728.273641396618</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O35" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P35" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q35" t="n">
         <v>6931.116362236997</v>
@@ -6985,10 +6985,10 @@
         <v>4180.374073908803</v>
       </c>
       <c r="X35" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y35" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="36">
@@ -7077,22 +7077,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H37" t="n">
         <v>140.96</v>
@@ -7140,13 +7140,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="W37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="38">
@@ -7156,19 +7156,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C38" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D38" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E38" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F38" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G38" t="n">
         <v>492.3327682960356</v>
@@ -7207,25 +7207,25 @@
         <v>7048</v>
       </c>
       <c r="S38" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T38" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U38" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V38" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W38" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X38" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y38" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="39">
@@ -7374,7 +7374,7 @@
         <v>307.8416045893196</v>
       </c>
       <c r="V40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W40" t="n">
         <v>140.96</v>
@@ -7420,16 +7420,16 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K41" t="n">
-        <v>1936.671378010443</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L41" t="n">
-        <v>3681.051378010443</v>
+        <v>2846.826260951187</v>
       </c>
       <c r="M41" t="n">
-        <v>4163.230577523946</v>
+        <v>3329.005460464689</v>
       </c>
       <c r="N41" t="n">
-        <v>4728.273641396618</v>
+        <v>3894.048524337361</v>
       </c>
       <c r="O41" t="n">
         <v>5638.428524337362</v>
@@ -7444,19 +7444,19 @@
         <v>7048</v>
       </c>
       <c r="S41" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T41" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U41" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V41" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W41" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X41" t="n">
         <v>3583.51196363841</v>
@@ -7551,25 +7551,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="C43" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D43" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E43" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F43" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G43" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H43" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I43" t="n">
         <v>140.96</v>
@@ -7608,19 +7608,19 @@
         <v>307.8416045893196</v>
       </c>
       <c r="U43" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="V43" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="W43" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="X43" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="Y43" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
     </row>
     <row r="44">
@@ -7630,19 +7630,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C44" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D44" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E44" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F44" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G44" t="n">
         <v>492.3327682960356</v>
@@ -7681,25 +7681,25 @@
         <v>7048</v>
       </c>
       <c r="S44" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T44" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U44" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V44" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W44" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X44" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y44" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="45">
@@ -7788,25 +7788,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="C46" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D46" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E46" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F46" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G46" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H46" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I46" t="n">
         <v>140.96</v>
@@ -7851,13 +7851,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="W46" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="X46" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="Y46" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
     </row>
   </sheetData>
@@ -7990,7 +7990,7 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L2" t="n">
-        <v>645.1956588512421</v>
+        <v>29.34358558166878</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R2" t="n">
         <v>294.54111633436</v>
@@ -8227,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>491.4928437002175</v>
+        <v>519.4191429811533</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8236,10 +8236,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P5" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8458,13 +8458,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J8" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>96.62737647160202</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>835.1386633165826</v>
+        <v>491.4928437002175</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8698,10 +8698,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>526.9321130577587</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L11" t="n">
-        <v>835.1386633165826</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8935,10 +8935,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>526.9321130577587</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L14" t="n">
-        <v>835.1386633165826</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9172,10 +9172,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>716.8751175230994</v>
+        <v>526.9321130577587</v>
       </c>
       <c r="L17" t="n">
-        <v>645.1956588512421</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9409,16 +9409,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L20" t="n">
-        <v>265.4073538855534</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9640,16 +9640,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>120.6470157237802</v>
+        <v>48.76829182712976</v>
       </c>
       <c r="J23" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>315.9139665186112</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>835.1386633165828</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9664,10 +9664,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10120,10 +10120,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>716.8751175230994</v>
+        <v>526.9321130577587</v>
       </c>
       <c r="L29" t="n">
-        <v>29.34358558166878</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10138,7 +10138,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>294.54111633436</v>
@@ -10357,16 +10357,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>526.9321130577587</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>835.1386633165826</v>
+        <v>265.4073538855534</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10594,10 +10594,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>645.1956588512421</v>
+        <v>746.2187031047679</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10612,7 +10612,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R35" t="n">
         <v>294.54111633436</v>
@@ -11068,10 +11068,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>526.9321130577587</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>835.1386633165826</v>
+        <v>519.4191429811533</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -23320,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.388344292977649</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.388344292978104</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23439,10 +23439,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H13" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23487,7 +23487,7 @@
         <v>226.3728098387097</v>
       </c>
       <c r="X13" t="n">
-        <v>179.6350010313895</v>
+        <v>247.4436454301076</v>
       </c>
       <c r="Y13" t="n">
         <v>287.4653528494624</v>
@@ -23673,10 +23673,10 @@
         <v>274.3828559677419</v>
       </c>
       <c r="G16" t="n">
-        <v>242.4092826775956</v>
+        <v>77.1964941341692</v>
       </c>
       <c r="H16" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I16" t="n">
         <v>97.40414414470841</v>
@@ -23800,10 +23800,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="X17" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23898,13 +23898,13 @@
         <v>287.1138003370787</v>
       </c>
       <c r="C19" t="n">
-        <v>272.7252466480447</v>
+        <v>204.9166022493267</v>
       </c>
       <c r="D19" t="n">
         <v>285.5362180555555</v>
       </c>
       <c r="E19" t="n">
-        <v>115.7681162935301</v>
+        <v>280.9809048369565</v>
       </c>
       <c r="F19" t="n">
         <v>274.3828559677419</v>
@@ -23916,7 +23916,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I19" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24101,10 +24101,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S21" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>287.1138003370787</v>
       </c>
       <c r="C22" t="n">
-        <v>272.7252466480447</v>
+        <v>204.9166022493267</v>
       </c>
       <c r="D22" t="n">
         <v>285.5362180555555</v>
@@ -24153,7 +24153,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I22" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V22" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W22" t="n">
         <v>226.3728098387097</v>
@@ -24226,10 +24226,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H23" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24338,10 +24338,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24387,7 +24387,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H25" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I25" t="n">
         <v>97.40414414470841</v>
@@ -24423,7 +24423,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T25" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U25" t="n">
         <v>150.8146863564251</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24514,7 +24514,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24688,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24812,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>287.1138003370787</v>
+        <v>219.3051559383607</v>
       </c>
       <c r="C31" t="n">
         <v>272.7252466480447</v>
@@ -24861,10 +24861,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H31" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I31" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24979,10 +24979,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.388344292977649</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.388344292978104</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25049,10 +25049,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>280.9809048369565</v>
       </c>
       <c r="F34" t="n">
-        <v>206.5742115690239</v>
+        <v>274.3828559677419</v>
       </c>
       <c r="G34" t="n">
         <v>242.4092826775956</v>
@@ -25149,7 +25149,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y34" t="n">
-        <v>287.4653528494624</v>
+        <v>219.6567084507444</v>
       </c>
     </row>
     <row r="35">
@@ -25177,7 +25177,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25225,7 +25225,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25335,7 +25335,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H37" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I37" t="n">
         <v>97.40414414470841</v>
@@ -25380,7 +25380,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W37" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X37" t="n">
         <v>247.4436454301076</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V40" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W40" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X40" t="n">
         <v>247.4436454301076</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25699,7 +25699,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25809,10 +25809,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H43" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I43" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U43" t="n">
-        <v>150.8146863564251</v>
+        <v>83.00604195770714</v>
       </c>
       <c r="V43" t="n">
         <v>199.1703102162162</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26046,10 +26046,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H46" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I46" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W46" t="n">
-        <v>226.3728098387097</v>
+        <v>158.5641654399917</v>
       </c>
       <c r="X46" t="n">
         <v>247.4436454301076</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16043.16799238382</v>
+        <v>1328579.677534699</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31819.98527572747</v>
+        <v>2619441.143875608</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47596.80255907111</v>
+        <v>3910302.610216519</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65553.46547813999</v>
+        <v>5066546.63120633</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83510.12839720887</v>
+        <v>6222790.652196138</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>101466.7913162777</v>
+        <v>7379034.673185941</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119423.4542353466</v>
+        <v>8535278.694175741</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>137380.1171544155</v>
+        <v>9691522.715165541</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>155336.7800734843</v>
+        <v>10847766.73615534</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>173293.4429925532</v>
+        <v>12004010.75714514</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>191250.1059116221</v>
+        <v>13160254.77813494</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>209206.7688306909</v>
+        <v>14316498.79912475</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>227163.43174976</v>
+        <v>15472742.82011457</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>245120.0946688291</v>
+        <v>16628986.84110439</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>263076.7575878983</v>
+        <v>17785230.86209421</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>913048.3542411316</v>
+        <v>913048.3542411313</v>
       </c>
       <c r="C2" t="n">
         <v>913048.3542411313</v>
@@ -26337,31 +26337,31 @@
         <v>817831.1367976686</v>
       </c>
       <c r="H2" t="n">
-        <v>817831.136797669</v>
+        <v>817831.1367976689</v>
       </c>
       <c r="I2" t="n">
-        <v>817831.136797669</v>
+        <v>817831.1367976689</v>
       </c>
       <c r="J2" t="n">
-        <v>817831.1367976685</v>
+        <v>817831.1367976686</v>
       </c>
       <c r="K2" t="n">
-        <v>817831.1367976686</v>
+        <v>817831.1367976689</v>
       </c>
       <c r="L2" t="n">
         <v>817831.1367976688</v>
       </c>
       <c r="M2" t="n">
-        <v>817831.1367976686</v>
+        <v>817831.1367976688</v>
       </c>
       <c r="N2" t="n">
-        <v>817831.1367976686</v>
+        <v>817831.1367976685</v>
       </c>
       <c r="O2" t="n">
         <v>817831.1367976688</v>
       </c>
       <c r="P2" t="n">
-        <v>817831.1367976686</v>
+        <v>817831.1367976685</v>
       </c>
     </row>
     <row r="3">
@@ -26429,7 +26429,7 @@
         <v>113919.326896347</v>
       </c>
       <c r="D4" t="n">
-        <v>113616.9662264139</v>
+        <v>113616.966226414</v>
       </c>
       <c r="E4" t="n">
         <v>38928.93672769592</v>
@@ -26527,7 +26527,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1418478.923709696</v>
+        <v>-1418478.923709697</v>
       </c>
       <c r="C6" t="n">
         <v>626522.0273447844</v>
@@ -26545,31 +26545,31 @@
         <v>639922.8000699728</v>
       </c>
       <c r="H6" t="n">
-        <v>639922.8000699731</v>
+        <v>639922.800069973</v>
       </c>
       <c r="I6" t="n">
-        <v>639922.8000699731</v>
+        <v>639922.800069973</v>
       </c>
       <c r="J6" t="n">
-        <v>19698.80006997264</v>
+        <v>19698.80006997276</v>
       </c>
       <c r="K6" t="n">
-        <v>639922.8000699728</v>
+        <v>639922.800069973</v>
       </c>
       <c r="L6" t="n">
         <v>639922.8000699729</v>
       </c>
       <c r="M6" t="n">
-        <v>639922.8000699728</v>
+        <v>639922.8000699729</v>
       </c>
       <c r="N6" t="n">
-        <v>639922.8000699728</v>
+        <v>639922.8000699726</v>
       </c>
       <c r="O6" t="n">
         <v>639922.8000699729</v>
       </c>
       <c r="P6" t="n">
-        <v>639922.8000699728</v>
+        <v>639922.8000699726</v>
       </c>
     </row>
   </sheetData>
@@ -27514,7 +27514,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.388344292978047</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27559,7 +27559,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27602,13 +27602,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.533699957572992</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27687,13 +27687,13 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I4" t="n">
-        <v>97.40414414470841</v>
+        <v>248.5691801256921</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>31.85592323974635</v>
@@ -27760,10 +27760,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H5" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27954,10 +27954,10 @@
         <v>400</v>
       </c>
       <c r="S7" t="n">
-        <v>400</v>
+        <v>316.45975839138</v>
       </c>
       <c r="T7" t="n">
-        <v>266.3924756327198</v>
+        <v>349.9327172413398</v>
       </c>
       <c r="U7" t="n">
         <v>150.8146863564251</v>
@@ -27997,7 +27997,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -28033,7 +28033,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28155,7 +28155,7 @@
         <v>274.3828559677419</v>
       </c>
       <c r="G10" t="n">
-        <v>242.4092826775956</v>
+        <v>393.5743186585793</v>
       </c>
       <c r="H10" t="n">
         <v>205.3472244622743</v>
@@ -28179,10 +28179,10 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O10" t="n">
-        <v>388.0294482079483</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P10" t="n">
-        <v>400</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q10" t="n">
         <v>400</v>
@@ -34834,7 +34834,7 @@
         <v>1463.98940395526</v>
       </c>
       <c r="L2" t="n">
-        <v>1572.05699553466</v>
+        <v>956.2049222650858</v>
       </c>
       <c r="M2" t="n">
         <v>487.0496964782857</v>
@@ -34849,7 +34849,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q2" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R2" t="n">
         <v>118.0642805686905</v>
@@ -34983,13 +34983,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="J4" t="n">
         <v>150.9965757542561</v>
       </c>
       <c r="K4" t="n">
-        <v>168.7357375896767</v>
+        <v>17.57070160869296</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -35071,7 +35071,7 @@
         <v>747.114286432161</v>
       </c>
       <c r="L5" t="n">
-        <v>1418.354180383635</v>
+        <v>1446.280479664571</v>
       </c>
       <c r="M5" t="n">
         <v>487.0496964782857</v>
@@ -35080,10 +35080,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O5" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P5" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q5" t="n">
         <v>461.4348583860824</v>
@@ -35250,10 +35250,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>83.54024160861997</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>67.62479437236371</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -35302,13 +35302,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J8" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>843.741662903763</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L8" t="n">
-        <v>1762</v>
+        <v>1418.354180383635</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
@@ -35320,7 +35320,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P8" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q8" t="n">
         <v>461.4348583860824</v>
@@ -35451,7 +35451,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -35475,10 +35475,10 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>119.9712283912285</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>31.19380758975518</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35542,10 +35542,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
-        <v>1274.04639948992</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L11" t="n">
-        <v>1762</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M11" t="n">
         <v>487.0496964782857</v>
@@ -35779,10 +35779,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K14" t="n">
-        <v>1274.04639948992</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L14" t="n">
-        <v>1762</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
@@ -36016,10 +36016,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K17" t="n">
-        <v>1463.98940395526</v>
+        <v>1274.04639948992</v>
       </c>
       <c r="L17" t="n">
-        <v>1572.05699553466</v>
+        <v>1762</v>
       </c>
       <c r="M17" t="n">
         <v>487.0496964782857</v>
@@ -36253,16 +36253,16 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L20" t="n">
-        <v>1192.268690568971</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M20" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N20" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O20" t="n">
         <v>919.3483666068121</v>
@@ -36484,16 +36484,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>76.35181519168728</v>
+        <v>4.473091295036792</v>
       </c>
       <c r="J23" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>1063.028252950772</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L23" t="n">
-        <v>926.861336683417</v>
+        <v>1762</v>
       </c>
       <c r="M23" t="n">
         <v>487.0496964782857</v>
@@ -36508,10 +36508,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q23" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R23" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36964,10 +36964,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>1463.98940395526</v>
+        <v>1274.04639948992</v>
       </c>
       <c r="L29" t="n">
-        <v>956.2049222650858</v>
+        <v>1762</v>
       </c>
       <c r="M29" t="n">
         <v>487.0496964782857</v>
@@ -36982,7 +36982,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q29" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R29" t="n">
         <v>118.0642805686905</v>
@@ -37201,16 +37201,16 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
-        <v>1274.04639948992</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L32" t="n">
-        <v>1762</v>
+        <v>1192.268690568971</v>
       </c>
       <c r="M32" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N32" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O32" t="n">
         <v>919.3483666068121</v>
@@ -37438,10 +37438,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L35" t="n">
-        <v>1572.05699553466</v>
+        <v>1673.080039788185</v>
       </c>
       <c r="M35" t="n">
         <v>487.0496964782857</v>
@@ -37456,7 +37456,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q35" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R35" t="n">
         <v>118.0642805686905</v>
@@ -37912,10 +37912,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
-        <v>1274.04639948992</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L41" t="n">
-        <v>1762</v>
+        <v>1446.280479664571</v>
       </c>
       <c r="M41" t="n">
         <v>487.0496964782857</v>
@@ -37924,7 +37924,7 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O41" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P41" t="n">
         <v>844.3104324216301</v>
